--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17402.97378276984</v>
+        <v>-19290.55529917217</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>128.2096926537238</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>67.22757360470926</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>16.1436521215674</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>73.57429787016902</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>138.0080730624246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>93.61007680563492</v>
+        <v>257.4121420417057</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>99.52155958671064</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.89200034207671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>160.8722505808164</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>134.3603560264887</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>128.3993171798704</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>132.5202535129949</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>174.5597668850135</v>
       </c>
       <c r="T19" t="n">
-        <v>70.82686222289681</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.41979386348666</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>182.698023656513</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>78.95415660387448</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>123.0388562607477</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>277.05929605379</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>168.118448184114</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896552</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437409</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897897</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571484</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>94.7054644173721</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>65.55170367593048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1335.58524627281</v>
+        <v>1430.355453824634</v>
       </c>
       <c r="C2" t="n">
-        <v>966.622729332398</v>
+        <v>1430.355453824634</v>
       </c>
       <c r="D2" t="n">
-        <v>608.3570307256475</v>
+        <v>1072.089755217884</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>686.3015026196392</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>275.3155978300317</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312743</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1722.185086336931</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.9192350259435</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>711.8222648917197</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>711.8222648917197</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>711.8222648917197</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9192350259435</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1039.703785687809</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1039.703785687809</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>681.4380870810585</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>295.6498344828142</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X5" t="n">
-        <v>1655.280787374151</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.280787374151</v>
+        <v>1426.303625751931</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>635.1915732143555</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>635.1915732143555</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>485.0749338020197</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1293.690638606345</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C8" t="n">
-        <v>924.728121665933</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="D8" t="n">
-        <v>566.4624230591826</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="E8" t="n">
-        <v>566.4624230591826</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4838,16 +4838,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843236</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X8" t="n">
-        <v>1683.829970582156</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y8" t="n">
-        <v>1293.690638606345</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4902,22 +4902,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.4025473335336</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C10" t="n">
-        <v>394.4025473335336</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406185</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406185</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>576.0510121637733</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123425</v>
+        <v>416.5712828402494</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
         <v>247.6350999123426</v>
@@ -5191,22 +5191,22 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.210845262961</v>
+        <v>1336.419047748997</v>
       </c>
       <c r="W13" t="n">
-        <v>785.793675226</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X13" t="n">
-        <v>650.0761438861124</v>
+        <v>819.0123268140192</v>
       </c>
       <c r="Y13" t="n">
-        <v>429.2835647425823</v>
+        <v>598.219747670489</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805479</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5343,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>488.8659712700622</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>731.3177283550798</v>
       </c>
       <c r="W16" t="n">
-        <v>898.5039869983193</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="X16" t="n">
-        <v>670.514436100302</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y16" t="n">
-        <v>670.514436100302</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,10 +5501,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,49 +5513,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,13 +5580,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,19 +5595,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.223678370532</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1322.593273704354</v>
       </c>
       <c r="T19" t="n">
-        <v>1227.453975399821</v>
+        <v>1322.593273704354</v>
       </c>
       <c r="U19" t="n">
-        <v>938.3253366133794</v>
+        <v>1033.464634917912</v>
       </c>
       <c r="V19" t="n">
-        <v>683.6408484074925</v>
+        <v>1033.464634917912</v>
       </c>
       <c r="W19" t="n">
-        <v>394.223678370532</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="X19" t="n">
-        <v>394.223678370532</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="Y19" t="n">
-        <v>394.223678370532</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>671.7300455988212</v>
+        <v>394.5250474102527</v>
       </c>
       <c r="C22" t="n">
-        <v>671.7300455988212</v>
+        <v>394.5250474102527</v>
       </c>
       <c r="D22" t="n">
-        <v>671.7300455988212</v>
+        <v>394.5250474102527</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8169520164281</v>
+        <v>394.5250474102527</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123424</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123424</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609665</v>
+        <v>1314.372812319001</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609665</v>
+        <v>1314.372812319001</v>
       </c>
       <c r="W22" t="n">
-        <v>986.0022165609665</v>
+        <v>1024.95564228204</v>
       </c>
       <c r="X22" t="n">
-        <v>758.0126656629492</v>
+        <v>796.9660913840225</v>
       </c>
       <c r="Y22" t="n">
-        <v>758.0126656629492</v>
+        <v>576.1735122404924</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,67 +5972,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>585.5099430858313</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C25" t="n">
-        <v>585.5099430858313</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>435.3933036734956</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>435.3933036734956</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>288.5033561755853</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G25" t="n">
-        <v>288.5033561755853</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>874.927113122792</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>874.927113122792</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W25" t="n">
-        <v>585.5099430858313</v>
+        <v>1119.950109361362</v>
       </c>
       <c r="X25" t="n">
-        <v>585.5099430858313</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="Y25" t="n">
-        <v>585.5099430858313</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.5200852635878</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.9567375132467</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
-        <v>674.9567375132467</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>524.840098100911</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1219.058395756094</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V28" t="n">
-        <v>964.3739075502073</v>
+        <v>905.3942309355725</v>
       </c>
       <c r="W28" t="n">
-        <v>674.9567375132467</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="X28" t="n">
-        <v>674.9567375132467</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.9567375132467</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,28 +6461,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>545.5472734739662</v>
+        <v>543.3437276440249</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739662</v>
+        <v>543.3437276440249</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430013</v>
+        <v>543.3437276440249</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430013</v>
+        <v>451.1914993430024</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>360.0624171264627</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>247.6479607276537</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1840.463977786001</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1672.439427856878</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1439.071654351806</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1240.14803142729</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818938</v>
+        <v>1006.4917266717</v>
       </c>
       <c r="X31" t="n">
-        <v>836.4665868849943</v>
+        <v>834.2630410550535</v>
       </c>
       <c r="Y31" t="n">
-        <v>671.4348730228351</v>
+        <v>669.2313271928939</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,61 +6689,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
         <v>221.529509210313</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,22 +7157,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7187,19 +7187,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,13 +7424,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2312.465467126435</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2517.487947908644</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,13 +7661,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>180.0237016735865</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504743</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907255</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>8.406710013101304</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642693</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>91.2653927430116</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>91.34929936254851</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>38.8475039187574</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>154.0027448235961</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>23.3610430985897</v>
       </c>
       <c r="T19" t="n">
-        <v>150.7206988354924</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.41218631845064</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>103.5393287420643</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>69.95967176366165</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>163.4841420758434</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>9.178056344787393</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>84.01919513971396</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801201</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523583</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>48.01208893767422</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>104.9546950845495</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1109139.243196449</v>
+        <v>1109139.243196448</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1109139.243196449</v>
+        <v>1109139.243196448</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1109139.243196449</v>
+        <v>1109139.243196448</v>
       </c>
     </row>
     <row r="11">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>287364.6194524996</v>
+      </c>
+      <c r="C2" t="n">
         <v>287364.6194524994</v>
       </c>
-      <c r="C2" t="n">
-        <v>287364.6194524995</v>
-      </c>
       <c r="D2" t="n">
-        <v>287364.6194524996</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
         <v>273720.3418163963</v>
@@ -26326,34 +26326,34 @@
         <v>273720.3418163962</v>
       </c>
       <c r="G2" t="n">
-        <v>273720.3418163964</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="H2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="I2" t="n">
-        <v>273720.3418163964</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="J2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="K2" t="n">
         <v>284775.4961416894</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524988</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524988</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524989</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086707</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143913</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563568</v>
+        <v>33210.29213563559</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275949</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275951</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275949</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
     </row>
     <row r="5">
@@ -26470,43 +26470,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-542237.296076677</v>
+        <v>-542237.2960766769</v>
       </c>
       <c r="C6" t="n">
-        <v>47730.58313786742</v>
+        <v>47730.58313786738</v>
       </c>
       <c r="D6" t="n">
-        <v>47730.58313786748</v>
+        <v>47730.58313786736</v>
       </c>
       <c r="E6" t="n">
-        <v>-358472.6902306554</v>
+        <v>-358570.149356628</v>
       </c>
       <c r="F6" t="n">
-        <v>166687.3462462405</v>
+        <v>166589.8871202682</v>
       </c>
       <c r="G6" t="n">
-        <v>166687.3462462407</v>
+        <v>166589.8871202683</v>
       </c>
       <c r="H6" t="n">
-        <v>166687.3462462404</v>
+        <v>166589.8871202684</v>
       </c>
       <c r="I6" t="n">
-        <v>166687.3462462408</v>
+        <v>166589.8871202683</v>
       </c>
       <c r="J6" t="n">
-        <v>-9735.872946352392</v>
+        <v>-9833.332072324542</v>
       </c>
       <c r="K6" t="n">
-        <v>110774.3901729852</v>
+        <v>110755.8964350511</v>
       </c>
       <c r="L6" t="n">
-        <v>141842.1499688471</v>
+        <v>141842.1499688473</v>
       </c>
       <c r="M6" t="n">
-        <v>17384.04153587666</v>
+        <v>17384.04153587711</v>
       </c>
       <c r="N6" t="n">
-        <v>152185.0567697142</v>
+        <v>152185.0567697143</v>
       </c>
       <c r="O6" t="n">
-        <v>152185.0567697142</v>
+        <v>152185.056769714</v>
       </c>
       <c r="P6" t="n">
-        <v>108022.4514668685</v>
+        <v>108022.4514668683</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26817,13 +26817,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108348</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>253.720677418538</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>346.5565964160857</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>4.910330425104604</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>130.5215398585905</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>333.3017478715424</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>231.7230276160444</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>54.65715509799989</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>313.2659689360765</v>
+        <v>149.4639037000057</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>49.09391343150172</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.6926530100181</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.700062395888381e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="32">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>429.2814066296109</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819989</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>642.8663885318336</v>
+        <v>570.7728848187828</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412267</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004319</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>96.41974279817546</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
